--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/实收资本.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/实收资本.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>149.83737</v>
-      </c>
-      <c r="C2" t="n">
-        <v>663.85876</v>
-      </c>
-      <c r="D2" t="n">
-        <v>127.82244</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0183</v>
-      </c>
-      <c r="F2" t="n">
-        <v>129.27873</v>
-      </c>
-      <c r="G2" t="n">
-        <v>535.34717</v>
-      </c>
-      <c r="H2" t="n">
-        <v>208.39589</v>
-      </c>
-      <c r="I2" t="n">
-        <v>174.43292</v>
-      </c>
-      <c r="J2" t="n">
-        <v>110.83314</v>
-      </c>
-      <c r="K2" t="n">
-        <v>372.89159</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9080.112209999999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>54.92696</v>
-      </c>
-      <c r="N2" t="n">
-        <v>125.52671</v>
-      </c>
-      <c r="O2" t="n">
-        <v>384.59538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>132.42664</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.85394</v>
-      </c>
-      <c r="R2" t="n">
-        <v>277.81953</v>
-      </c>
-      <c r="S2" t="n">
-        <v>94.77196000000001</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>146.11794</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.29387</v>
-      </c>
-      <c r="W2" t="n">
-        <v>15.39415</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.91876</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>687.00371</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1093.14428</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>591.0121799999999</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>155.10575</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>44.9999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>21.9905</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>481.98521</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8.76826</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>294.23193</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>389.55107</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>538.14606</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.77168</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>300.22837</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>251.89668</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>345.84699</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>153.57472</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.49277</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>177.22902</v>
-      </c>
-      <c r="C3" t="n">
-        <v>736.42999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>138.8704</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>143.57265</v>
-      </c>
-      <c r="G3" t="n">
-        <v>623.27721</v>
-      </c>
-      <c r="H3" t="n">
-        <v>137.10559</v>
-      </c>
-      <c r="I3" t="n">
-        <v>198.16042</v>
-      </c>
-      <c r="J3" t="n">
-        <v>140.03632</v>
-      </c>
-      <c r="K3" t="n">
-        <v>437.25046</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10256.78317</v>
-      </c>
-      <c r="M3" t="n">
-        <v>65.07496</v>
-      </c>
-      <c r="N3" t="n">
-        <v>130.66132</v>
-      </c>
-      <c r="O3" t="n">
-        <v>446.06233</v>
-      </c>
-      <c r="P3" t="n">
-        <v>124.14783</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.455</v>
-      </c>
-      <c r="R3" t="n">
-        <v>301.39768</v>
-      </c>
-      <c r="S3" t="n">
-        <v>106.87379</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>160.06924</v>
-      </c>
-      <c r="V3" t="n">
-        <v>10.21081</v>
-      </c>
-      <c r="W3" t="n">
-        <v>23.88951</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.52807</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>815.89501</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1269.83516</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>666.40617</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>171.05389</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>120.86871</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>62.56813</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>539.04087</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14.46128</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>320.26672</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>451.7676</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>563.66399</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.856490000000001</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>336.68272</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>265.7526</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>368.159</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>172.44751</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.7547199999999999</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>199.32067</v>
-      </c>
-      <c r="C4" t="n">
-        <v>824.86322</v>
-      </c>
-      <c r="D4" t="n">
-        <v>171.49545</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>176.52292</v>
-      </c>
-      <c r="G4" t="n">
-        <v>696.45375</v>
-      </c>
-      <c r="H4" t="n">
-        <v>151.75975</v>
-      </c>
-      <c r="I4" t="n">
-        <v>239.52855</v>
-      </c>
-      <c r="J4" t="n">
-        <v>150.149</v>
-      </c>
-      <c r="K4" t="n">
-        <v>498.41615</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11447.27689</v>
-      </c>
-      <c r="M4" t="n">
-        <v>77.32556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>151.99848</v>
-      </c>
-      <c r="O4" t="n">
-        <v>490.63423</v>
-      </c>
-      <c r="P4" t="n">
-        <v>162.6635</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.33981</v>
-      </c>
-      <c r="R4" t="n">
-        <v>336.95391</v>
-      </c>
-      <c r="S4" t="n">
-        <v>110.81052</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>189.55251</v>
-      </c>
-      <c r="V4" t="n">
-        <v>7.02954</v>
-      </c>
-      <c r="W4" t="n">
-        <v>27.46635</v>
-      </c>
-      <c r="X4" t="n">
-        <v>6.59176</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>815.4232</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1566.55646</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>710.59268</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>194.8946</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>137.07873</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>56.58642</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>607.49555</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>37.38951</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>353.02785</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>476.74762</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>602.0528</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.488530000000001</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>356.71402</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>296.27553</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>384.56643</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>169.76517</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.06017</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
